--- a/writing/ERL manuscript/2. revise and resubmit/rojas rueda exposures.xlsx
+++ b/writing/ERL manuscript/2. revise and resubmit/rojas rueda exposures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gretam/Documents/Git/lcd2025/writing/ERL manuscript/2. revise and resubmit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F350E1-3F70-BB4F-8A6D-5332F27711C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D6A512-623C-7E40-B3E7-B6969AB67125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29440" yWindow="1900" windowWidth="32740" windowHeight="15720" xr2:uid="{7CD9AD8A-B386-A340-BFB2-72DD1132B4FE}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="28400" windowHeight="15720" xr2:uid="{7CD9AD8A-B386-A340-BFB2-72DD1132B4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Author (Year)</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Wilker (2014)</t>
   </si>
   <si>
-    <t>month of july</t>
-  </si>
-  <si>
     <t>July average across study period 2000-2012</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>annual average over summer months  2001-2011</t>
   </si>
   <si>
-    <t>summer months</t>
-  </si>
-  <si>
     <t>Ji (2019)</t>
   </si>
   <si>
@@ -398,6 +392,60 @@
       </rPr>
       <t xml:space="preserve"> gridcell</t>
     </r>
+  </si>
+  <si>
+    <t>month of july, averaged</t>
+  </si>
+  <si>
+    <t>summer months, averaged each year</t>
+  </si>
+  <si>
+    <t>follow-up</t>
+  </si>
+  <si>
+    <t>8 years</t>
+  </si>
+  <si>
+    <t>5 years</t>
+  </si>
+  <si>
+    <t>10 years</t>
+  </si>
+  <si>
+    <t>14 years</t>
+  </si>
+  <si>
+    <t>4 years</t>
+  </si>
+  <si>
+    <t>12 years</t>
+  </si>
+  <si>
+    <t>18 years</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
 </sst>
 </file>
@@ -793,270 +841,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74510EB7-C03A-6945-90E0-1D52D4A9D4F7}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="37.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="45" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="35.83203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="35.83203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:10" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51">
+    <row r="2" spans="1:10" ht="51">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68">
+    <row r="3" spans="1:10" ht="68">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="68">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="51">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="68">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="51">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="51" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="51" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="51">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="68">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="68">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="F15" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="H15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
